--- a/Test Excels/HUD_Crawler_Test_Excel.xlsx
+++ b/Test Excels/HUD_Crawler_Test_Excel.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SectionM8 Business Documents\SectionM8 Fall 2025 Demo\SectionM8-Demo-Fall2025\Crawlers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAB35E-2FC6-4544-ACA9-6D1D9BCA2F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>dataset_name</t>
   </si>
@@ -88,6 +82,9 @@
     <t>occupied_units</t>
   </si>
   <si>
+    <t>vacancy_rate</t>
+  </si>
+  <si>
     <t>assisted_units</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
     <t>Mid-Atlantic Region</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>https://www.huduser.gov/portal/datasets/fmr.html</t>
   </si>
   <si>
@@ -314,16 +314,16 @@
   </si>
   <si>
     <t>Run_2025_10_29_001</t>
-  </si>
-  <si>
-    <t>vacancy_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,15 +334,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -355,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,62 +370,94 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -453,79 +490,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,54 +583,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -603,7 +639,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -612,7 +648,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -621,7 +657,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -629,10 +665,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -661,7 +697,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -674,13 +710,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -698,24 +733,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="23" max="23" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -727,13 +821,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -742,19 +836,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -772,313 +866,310 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6">
+        <v>42091</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="6">
+        <v>37980</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="6">
+        <v>19406</v>
+      </c>
+      <c r="L2" s="6">
+        <v>85000</v>
+      </c>
+      <c r="M2" s="6">
+        <v>24000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45000</v>
+      </c>
+      <c r="O2" s="6">
+        <v>67000</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="6">
+        <v>50</v>
+      </c>
+      <c r="V2" s="6">
+        <v>40</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0.065</v>
+      </c>
+      <c r="X2" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>921</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>2006</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>40.571</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>-77.56</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>42027012000</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>37964</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2">
-        <v>42091</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2">
-        <v>37980</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2">
-        <v>19406</v>
-      </c>
-      <c r="L2" s="3">
-        <v>85000</v>
-      </c>
-      <c r="M2" s="3">
-        <v>24000</v>
-      </c>
-      <c r="N2">
-        <v>45000</v>
-      </c>
-      <c r="O2">
-        <v>67000</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2">
-        <v>50</v>
-      </c>
-      <c r="V2">
-        <v>40</v>
-      </c>
-      <c r="W2" s="4">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2">
-        <v>921</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2">
-        <v>2006</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2">
-        <v>94</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV2">
-        <v>40.570999999999998</v>
-      </c>
-      <c r="AW2">
-        <v>-77.56</v>
-      </c>
-      <c r="AX2">
-        <v>42027012000</v>
-      </c>
-      <c r="AY2">
-        <v>37964</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>97</v>
+      <c r="BH2" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="BB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>